--- a/المصروفات.xlsx
+++ b/المصروفات.xlsx
@@ -11,6 +11,7 @@
     <sheet name="C1 (1)" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="مصروفات اداريه" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="sda (0)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="sherif (2)" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -397,16 +398,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -785,8 +784,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -803,6 +800,86 @@
         <is>
           <t>المصروف</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sherif</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>44572</v>
       </c>
     </row>
   </sheetData>

--- a/المصروفات.xlsx
+++ b/المصروفات.xlsx
@@ -12,6 +12,13 @@
     <sheet name="مصروفات اداريه" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="sda (0)" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="sherif (2)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="C4 (4)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ششششششششششششششششششششششش (6)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ضضضضضضضضضضضضضضضضضضضضضضض (222)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ىىىىىىىىىىىىىىىىىىىىىىىى (333)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ةةةةةةةةةةةةةةةةةةةةةةةةة (999)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="sad (66)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="vcmhjwe (7865)" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -410,6 +417,214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ىىىىىىىىىىىىىىىىىىىىىىىى</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>333</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ةةةةةةةةةةةةةةةةةةةةةةةةة</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>999</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>vcmhjwe</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>7865</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -762,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,7 +1055,6 @@
           <t>010</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -868,7 +1082,6 @@
       <c r="B4" t="n">
         <v>100</v>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>2022</v>
       </c>
@@ -880,6 +1093,159 @@
       </c>
       <c r="G4" s="1" t="n">
         <v>44572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ششششششششششششششششششششششش</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ضضضضضضضضضضضضضضضضضضضضضضض</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>222</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/المصروفات.xlsx
+++ b/المصروفات.xlsx
@@ -7,18 +7,22 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="C0 (0)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="C1 (1)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="مصروفات اداريه" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="sda (0)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="sherif (2)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="C4 (4)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ششششششششششششششششششششششش (6)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ضضضضضضضضضضضضضضضضضضضضضضض (222)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ىىىىىىىىىىىىىىىىىىىىىىىى (333)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="ةةةةةةةةةةةةةةةةةةةةةةةةة (999)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="sad (66)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="vcmhjwe (7865)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="C1 (1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="مصروفات اداريه" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sda (0)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sherif (2)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="C4 (4)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ششششششششششششششششششششششش (6)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ضضضضضضضضضضضضضضضضضضضضضضض (222)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ىىىىىىىىىىىىىىىىىىىىىىىى (333)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ةةةةةةةةةةةةةةةةةةةةةةةةة (999)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="sad (66)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="so (0)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name=" (99)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name=" (12)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Client (7)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Client (7)2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Test Client (15)" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -434,11 +438,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ىىىىىىىىىىىىىىىىىىىىىىىى</t>
+          <t>ةةةةةةةةةةةةةةةةةةةةةةةةة</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>333</v>
+        <v>999</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -469,6 +473,196 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>so</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>99</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -485,11 +679,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ةةةةةةةةةةةةةةةةةةةةةةةةة</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>999</v>
+        <v>7</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -519,7 +713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -536,19 +730,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -572,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -589,11 +781,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>vcmhjwe</t>
+          <t>Test Client</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>7865</v>
+        <v>15</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -642,25 +834,18 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
+      <c r="C1" t="n">
+        <v>0</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>11-street</t>
+          <t>new edited address</t>
         </is>
       </c>
     </row>
@@ -684,7 +869,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10/01/2022</t>
+          <t>04/01/2022</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -697,16 +882,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17/01/2022</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -719,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>44578</v>
+        <v>44587</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,43 +932,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>27/12/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>44557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>المبلغ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>المصروف</t>
-        </is>
+          <t>03/01/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>44564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04/01/2022</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
         <v>2022</v>
@@ -792,16 +1006,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -814,10 +1028,865 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>44587</v>
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04/01/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04/01/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05/01/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>acv</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05/01/2022</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>acv</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>saf</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>saf</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>100</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>100</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>100</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>19</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>100</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>100</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>200</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>200</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>100</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>100</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>19/01/2022</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>27/01/2022</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>100</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>27</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>05/02/2022</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>44597</v>
       </c>
     </row>
   </sheetData>
@@ -826,152 +1895,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>المبلغ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>المصروف</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>03/01/2022</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>44564</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>04/01/2022</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>44565</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17/01/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17/01/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>44578</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1022,7 +1945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1093,6 +2016,60 @@
       </c>
       <c r="G4" s="1" t="n">
         <v>44572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>adress</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1117,11 +2094,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>ششششششششششششششششششششششش</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -1168,11 +2145,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ششششششششششششششششششششششش</t>
+          <t>ضضضضضضضضضضضضضضضضضضضضضضض</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -1219,11 +2196,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ضضضضضضضضضضضضضضضضضضضضضضض</t>
+          <t>ىىىىىىىىىىىىىىىىىىىىىىىى</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>

--- a/المصروفات.xlsx
+++ b/المصروفات.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Client One (12)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="New (0)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="مصروفات اداريه" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -16,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,14 +395,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="D1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -409,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,43 +426,148 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Client One</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>21351</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>01019149495</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mobarak City - Mansura</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ay 7aga</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>المبلغ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>المصروف</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>المبلغ</t>
-        </is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>المصروف</t>
-        </is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>44621</v>
       </c>
     </row>
   </sheetData>
